--- a/Italy_Region.xlsx
+++ b/Italy_Region.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22702"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anthonyebert/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anthonyebert/Git/ItalyCovid19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{E3174B43-FC73-3747-9C91-5689A54562EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E3407104-0AEA-4E7A-A6BE-DE977D4AACCA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB6FD9E-4000-204E-830A-0414FA8AFCFF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-3600" windowWidth="38400" windowHeight="21600" xr2:uid="{E859E910-C86A-9843-B4E6-629BCC4D0150}"/>
+    <workbookView xWindow="28800" yWindow="-3140" windowWidth="38400" windowHeight="20120" xr2:uid="{E859E910-C86A-9843-B4E6-629BCC4D0150}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="28">
   <si>
     <t>Positivi</t>
   </si>
@@ -115,12 +113,15 @@
   <si>
     <t>Basilicata</t>
   </si>
+  <si>
+    <t>Date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -154,7 +155,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -468,20 +469,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F47D36C6-10A3-364C-AF99-60A4C89CAE53}">
   <dimension ref="A1:H221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A145" sqref="A122:XFD145"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -504,7 +508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43885</v>
       </c>
@@ -515,7 +519,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43885</v>
       </c>
@@ -526,7 +530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43885</v>
       </c>
@@ -537,7 +541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43885</v>
       </c>
@@ -548,7 +552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43885</v>
       </c>
@@ -559,7 +563,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43885</v>
       </c>
@@ -570,7 +574,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43885</v>
       </c>
@@ -581,7 +585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43885</v>
       </c>
@@ -592,7 +596,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43885</v>
       </c>
@@ -603,7 +607,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43885</v>
       </c>
@@ -614,7 +618,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43885</v>
       </c>
@@ -625,7 +629,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43885</v>
       </c>
@@ -636,7 +640,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43885</v>
       </c>
@@ -647,7 +651,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43885</v>
       </c>
@@ -658,7 +662,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43885</v>
       </c>
@@ -669,7 +673,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43885</v>
       </c>
@@ -680,7 +684,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43885</v>
       </c>
@@ -691,7 +695,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43885</v>
       </c>
@@ -702,7 +706,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43885</v>
       </c>
@@ -713,7 +717,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43885</v>
       </c>
@@ -724,7 +728,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43886</v>
       </c>
@@ -738,7 +742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43886</v>
       </c>
@@ -752,7 +756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43886</v>
       </c>
@@ -766,7 +770,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43886</v>
       </c>
@@ -780,7 +784,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43886</v>
       </c>
@@ -794,7 +798,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43886</v>
       </c>
@@ -808,7 +812,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43886</v>
       </c>
@@ -822,7 +826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43886</v>
       </c>
@@ -836,7 +840,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43886</v>
       </c>
@@ -850,7 +854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43886</v>
       </c>
@@ -864,7 +868,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43886</v>
       </c>
@@ -878,7 +882,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43886</v>
       </c>
@@ -892,7 +896,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43886</v>
       </c>
@@ -906,7 +910,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43886</v>
       </c>
@@ -920,7 +924,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43886</v>
       </c>
@@ -934,7 +938,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43886</v>
       </c>
@@ -948,7 +952,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43886</v>
       </c>
@@ -962,7 +966,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>43886</v>
       </c>
@@ -976,7 +980,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>43886</v>
       </c>
@@ -990,7 +994,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>43886</v>
       </c>
@@ -1004,7 +1008,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>43887</v>
       </c>
@@ -1015,7 +1019,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43887</v>
       </c>
@@ -1026,7 +1030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43887</v>
       </c>
@@ -1037,7 +1041,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43887</v>
       </c>
@@ -1048,7 +1052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>43887</v>
       </c>
@@ -1059,7 +1063,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>43887</v>
       </c>
@@ -1070,7 +1074,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>43887</v>
       </c>
@@ -1081,7 +1085,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>43887</v>
       </c>
@@ -1092,7 +1096,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>43887</v>
       </c>
@@ -1103,7 +1107,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>43887</v>
       </c>
@@ -1114,7 +1118,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>43887</v>
       </c>
@@ -1125,7 +1129,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>43887</v>
       </c>
@@ -1136,7 +1140,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>43887</v>
       </c>
@@ -1147,7 +1151,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>43887</v>
       </c>
@@ -1158,7 +1162,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>43887</v>
       </c>
@@ -1169,7 +1173,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>43887</v>
       </c>
@@ -1180,7 +1184,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>43887</v>
       </c>
@@ -1191,7 +1195,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>43887</v>
       </c>
@@ -1202,7 +1206,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>43887</v>
       </c>
@@ -1213,7 +1217,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>43887</v>
       </c>
@@ -1224,7 +1228,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>43888</v>
       </c>
@@ -1235,7 +1239,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>43888</v>
       </c>
@@ -1246,7 +1250,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>43888</v>
       </c>
@@ -1257,7 +1261,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>43888</v>
       </c>
@@ -1268,7 +1272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>43888</v>
       </c>
@@ -1279,7 +1283,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>43888</v>
       </c>
@@ -1290,7 +1294,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>43888</v>
       </c>
@@ -1301,7 +1305,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>43888</v>
       </c>
@@ -1312,7 +1316,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>43888</v>
       </c>
@@ -1323,7 +1327,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>43888</v>
       </c>
@@ -1334,7 +1338,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>43888</v>
       </c>
@@ -1345,7 +1349,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>43888</v>
       </c>
@@ -1356,7 +1360,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>43888</v>
       </c>
@@ -1367,7 +1371,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>43888</v>
       </c>
@@ -1378,7 +1382,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>43888</v>
       </c>
@@ -1389,7 +1393,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>43888</v>
       </c>
@@ -1400,7 +1404,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>43888</v>
       </c>
@@ -1411,7 +1415,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>43888</v>
       </c>
@@ -1422,7 +1426,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>43888</v>
       </c>
@@ -1433,7 +1437,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>43888</v>
       </c>
@@ -1444,7 +1448,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>43889</v>
       </c>
@@ -1455,7 +1459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>43889</v>
       </c>
@@ -1466,7 +1470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>43889</v>
       </c>
@@ -1477,7 +1481,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>43889</v>
       </c>
@@ -1488,7 +1492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>43889</v>
       </c>
@@ -1499,7 +1503,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>43889</v>
       </c>
@@ -1510,7 +1514,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>43889</v>
       </c>
@@ -1521,7 +1525,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>43889</v>
       </c>
@@ -1532,7 +1536,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>43889</v>
       </c>
@@ -1543,7 +1547,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>43889</v>
       </c>
@@ -1554,7 +1558,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>43889</v>
       </c>
@@ -1565,7 +1569,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>43889</v>
       </c>
@@ -1576,7 +1580,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>43889</v>
       </c>
@@ -1587,7 +1591,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>43889</v>
       </c>
@@ -1598,7 +1602,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>43889</v>
       </c>
@@ -1609,7 +1613,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>43889</v>
       </c>
@@ -1620,7 +1624,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>43889</v>
       </c>
@@ -1631,7 +1635,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>43889</v>
       </c>
@@ -1642,7 +1646,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>43889</v>
       </c>
@@ -1653,7 +1657,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>43889</v>
       </c>
@@ -1664,7 +1668,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>43891</v>
       </c>
@@ -1675,7 +1679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>43891</v>
       </c>
@@ -1686,7 +1690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>43891</v>
       </c>
@@ -1697,7 +1701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>43891</v>
       </c>
@@ -1708,7 +1712,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>43891</v>
       </c>
@@ -1719,7 +1723,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>43891</v>
       </c>
@@ -1730,7 +1734,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>43891</v>
       </c>
@@ -1741,7 +1745,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>43891</v>
       </c>
@@ -1752,7 +1756,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>43891</v>
       </c>
@@ -1763,7 +1767,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>43891</v>
       </c>
@@ -1774,7 +1778,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>43891</v>
       </c>
@@ -1785,7 +1789,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>43891</v>
       </c>
@@ -1796,7 +1800,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>43891</v>
       </c>
@@ -1807,7 +1811,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>43891</v>
       </c>
@@ -1818,7 +1822,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>43891</v>
       </c>
@@ -1829,7 +1833,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>43891</v>
       </c>
@@ -1840,7 +1844,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>43891</v>
       </c>
@@ -1851,7 +1855,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>43891</v>
       </c>
@@ -1862,7 +1866,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>43891</v>
       </c>
@@ -1873,7 +1877,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>43891</v>
       </c>
@@ -1884,7 +1888,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>43892</v>
       </c>
@@ -1910,7 +1914,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>43892</v>
       </c>
@@ -1936,7 +1940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>43892</v>
       </c>
@@ -1962,7 +1966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>43892</v>
       </c>
@@ -1988,7 +1992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>43892</v>
       </c>
@@ -2014,7 +2018,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>43892</v>
       </c>
@@ -2040,7 +2044,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>43892</v>
       </c>
@@ -2066,7 +2070,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>43892</v>
       </c>
@@ -2092,7 +2096,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>43892</v>
       </c>
@@ -2118,7 +2122,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>43892</v>
       </c>
@@ -2144,7 +2148,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>43892</v>
       </c>
@@ -2170,7 +2174,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>43892</v>
       </c>
@@ -2196,7 +2200,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>43892</v>
       </c>
@@ -2222,7 +2226,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>43892</v>
       </c>
@@ -2248,7 +2252,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>43892</v>
       </c>
@@ -2274,7 +2278,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>43892</v>
       </c>
@@ -2300,7 +2304,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>43892</v>
       </c>
@@ -2326,7 +2330,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>43892</v>
       </c>
@@ -2352,7 +2356,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>43892</v>
       </c>
@@ -2378,7 +2382,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>43892</v>
       </c>
@@ -2404,7 +2408,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>43893</v>
       </c>
@@ -2430,7 +2434,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>43893</v>
       </c>
@@ -2456,7 +2460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>43893</v>
       </c>
@@ -2482,7 +2486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>43893</v>
       </c>
@@ -2508,7 +2512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>43893</v>
       </c>
@@ -2534,7 +2538,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>43893</v>
       </c>
@@ -2560,7 +2564,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>43893</v>
       </c>
@@ -2586,7 +2590,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>43893</v>
       </c>
@@ -2612,7 +2616,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>43893</v>
       </c>
@@ -2638,7 +2642,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>43893</v>
       </c>
@@ -2664,7 +2668,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>43893</v>
       </c>
@@ -2690,7 +2694,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>43893</v>
       </c>
@@ -2716,7 +2720,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>43893</v>
       </c>
@@ -2742,7 +2746,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>43893</v>
       </c>
@@ -2768,7 +2772,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>43893</v>
       </c>
@@ -2794,7 +2798,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>43893</v>
       </c>
@@ -2820,7 +2824,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>43893</v>
       </c>
@@ -2846,7 +2850,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>43893</v>
       </c>
@@ -2872,7 +2876,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>43893</v>
       </c>
@@ -2898,7 +2902,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>43893</v>
       </c>
@@ -2924,7 +2928,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>43894</v>
       </c>
@@ -2950,7 +2954,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>43894</v>
       </c>
@@ -2976,7 +2980,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>43894</v>
       </c>
@@ -3002,7 +3006,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>43894</v>
       </c>
@@ -3028,7 +3032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>43894</v>
       </c>
@@ -3054,7 +3058,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>43894</v>
       </c>
@@ -3080,7 +3084,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>43894</v>
       </c>
@@ -3106,7 +3110,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>43894</v>
       </c>
@@ -3132,7 +3136,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>43894</v>
       </c>
@@ -3158,7 +3162,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>43894</v>
       </c>
@@ -3184,7 +3188,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>43894</v>
       </c>
@@ -3210,7 +3214,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>43894</v>
       </c>
@@ -3236,7 +3240,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>43894</v>
       </c>
@@ -3262,7 +3266,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>43894</v>
       </c>
@@ -3288,7 +3292,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>43894</v>
       </c>
@@ -3314,7 +3318,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>43894</v>
       </c>
@@ -3340,7 +3344,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>43894</v>
       </c>
@@ -3366,7 +3370,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>43894</v>
       </c>
@@ -3392,7 +3396,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>43894</v>
       </c>
@@ -3418,7 +3422,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>43894</v>
       </c>
@@ -3444,7 +3448,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>43895</v>
       </c>
@@ -3470,7 +3474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>43895</v>
       </c>
@@ -3496,7 +3500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>43895</v>
       </c>
@@ -3522,7 +3526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>43895</v>
       </c>
@@ -3548,7 +3552,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>43895</v>
       </c>
@@ -3574,7 +3578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>43895</v>
       </c>
@@ -3600,7 +3604,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>43895</v>
       </c>
@@ -3626,7 +3630,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>43895</v>
       </c>
@@ -3652,7 +3656,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>43895</v>
       </c>
@@ -3678,7 +3682,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>43895</v>
       </c>
@@ -3704,7 +3708,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>43895</v>
       </c>
@@ -3730,7 +3734,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>43895</v>
       </c>
@@ -3756,7 +3760,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>43895</v>
       </c>
@@ -3782,7 +3786,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>43895</v>
       </c>
@@ -3808,7 +3812,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>43895</v>
       </c>
@@ -3834,7 +3838,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>43895</v>
       </c>
@@ -3860,7 +3864,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>43895</v>
       </c>
@@ -3886,7 +3890,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>43895</v>
       </c>
@@ -3912,7 +3916,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>43895</v>
       </c>
@@ -3938,7 +3942,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>43895</v>
       </c>
@@ -3964,7 +3968,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>43896</v>
       </c>
@@ -3990,7 +3994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>43896</v>
       </c>
@@ -4016,7 +4020,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>43896</v>
       </c>
@@ -4042,7 +4046,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>43896</v>
       </c>
@@ -4068,7 +4072,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>43896</v>
       </c>
@@ -4094,7 +4098,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>43896</v>
       </c>
@@ -4120,7 +4124,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>43896</v>
       </c>
@@ -4146,7 +4150,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>43896</v>
       </c>
@@ -4172,7 +4176,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>43896</v>
       </c>
@@ -4198,7 +4202,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>43896</v>
       </c>
@@ -4224,7 +4228,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>43896</v>
       </c>
@@ -4250,7 +4254,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>43896</v>
       </c>
@@ -4276,7 +4280,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>43896</v>
       </c>
@@ -4302,7 +4306,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>43896</v>
       </c>
@@ -4328,7 +4332,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>43896</v>
       </c>
@@ -4354,7 +4358,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>43896</v>
       </c>
@@ -4380,7 +4384,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>43896</v>
       </c>
@@ -4406,7 +4410,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>43896</v>
       </c>
@@ -4432,7 +4436,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>43896</v>
       </c>
@@ -4458,7 +4462,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>43896</v>
       </c>
